--- a/Flash_Map.xlsx
+++ b/Flash_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\VESC_GD32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E2CB4-F791-4C2F-AEAF-27A556DC3041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0165596-3983-4A30-B352-81745CE86FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="10425" windowWidth="19440" windowHeight="14880" xr2:uid="{C0E9AD0C-43E1-444E-8E84-65187545FCC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{C0E9AD0C-43E1-444E-8E84-65187545FCC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LISP 16k</t>
   </si>
   <si>
     <t>QML 16k</t>
+  </si>
+  <si>
+    <t>App_Conf</t>
+  </si>
+  <si>
+    <t>Motor_Conf</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <dimension ref="A1:F384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="D377" sqref="D377"/>
+      <selection activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C257" si="7">C194+2048</f>
+        <f t="shared" ref="C195:C256" si="7">C194+2048</f>
         <v>134615040</v>
       </c>
       <c r="D195" t="str">
@@ -6398,6 +6404,12 @@
         <f t="shared" si="11"/>
         <v>80F6000</v>
       </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
@@ -6413,6 +6425,12 @@
       <c r="D376" t="str">
         <f t="shared" si="11"/>
         <v>80F7000</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
